--- a/excel-file-processing-service/src/main/resources/Реестр акты Консалтинг 15.01.xlsx
+++ b/excel-file-processing-service/src/main/resources/Реестр акты Консалтинг 15.01.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="267">
   <si>
     <t>Параметры:</t>
   </si>
@@ -820,7 +820,10 @@
     <t>Счет на оплату КмК-23-0205 от 22.11.2023 13:22:28</t>
   </si>
   <si>
-    <t>Вернуть до... а то наказывать будут</t>
+    <t>Вернуть до 15.01.2024</t>
+  </si>
+  <si>
+    <t>Вернуть в течение 30 дней</t>
   </si>
 </sst>
 </file>
@@ -5185,7 +5188,7 @@
       </c>
       <c r="L46" s="454" t="e"/>
       <c r="M46" s="984" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">

--- a/excel-file-processing-service/src/main/resources/Реестр акты Консалтинг 15.01.xlsx
+++ b/excel-file-processing-service/src/main/resources/Реестр акты Консалтинг 15.01.xlsx
@@ -871,17 +871,17 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="16.0"/>
+      <sz val="14.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="16.0"/>
+      <sz val="14.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="16.0"/>
+      <sz val="14.0"/>
       <b val="true"/>
     </font>
   </fonts>

--- a/excel-file-processing-service/src/main/resources/Реестр акты Консалтинг 15.01.xlsx
+++ b/excel-file-processing-service/src/main/resources/Реестр акты Консалтинг 15.01.xlsx
@@ -823,7 +823,7 @@
     <t>Вернуть до 15.01.2024</t>
   </si>
   <si>
-    <t>Вернуть в течение 30 дней</t>
+    <t>Вернуть в течение 30 дней со дня выставления акта</t>
   </si>
 </sst>
 </file>
